--- a/va_facility_data_2025-02-20/Hobbs VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hobbs%20VA%20Clinic%20-%20Facility%20Data.xlsx
+++ b/va_facility_data_2025-02-20/Hobbs VA Clinic - Facility Data.xlsx"; filename*=UTF-8''Hobbs%20VA%20Clinic%20-%20Facility%20Data.xlsx
@@ -2,9 +2,9 @@
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <x:workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <x:sheets>
-    <x:sheet name="Wait Times" sheetId="1" r:id="Rb979c83799974ae38569812f9937630d"/>
-    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="R7571cff1c7fe4dc3bdc5c541e79160d6"/>
-    <x:sheet name="Outpatient Score" sheetId="3" r:id="R58e8635989fa40aa9d5df333817de730"/>
+    <x:sheet name="Wait Times" sheetId="1" r:id="Rde54fbd5b9164bc59798828df88b9123"/>
+    <x:sheet name="Satisfaction with Care" sheetId="2" r:id="Ra270330ffb14467aa4856949cf2061e0"/>
+    <x:sheet name="Outpatient Score" sheetId="3" r:id="R9055eec077644a46aa70ed7f52ee1e89"/>
   </x:sheets>
 </x:workbook>
 </file>
